--- a/data/trans_orig/P17_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P17_R-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>149834</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>131236</v>
+        <v>133643</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>165613</v>
+        <v>166486</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5522514266118996</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.483705395234619</v>
+        <v>0.4925786137220009</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6104104615831046</v>
+        <v>0.6136271231009803</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>179</v>
@@ -765,19 +765,19 @@
         <v>188060</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>172151</v>
+        <v>171973</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>202775</v>
+        <v>202632</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7209836262101209</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6599911612148659</v>
+        <v>0.6593077513977953</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.777397475065816</v>
+        <v>0.7768492246662014</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>329</v>
@@ -786,19 +786,19 @@
         <v>337893</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>311968</v>
+        <v>315374</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>360842</v>
+        <v>359372</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6349567132508407</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5862375915987387</v>
+        <v>0.5926383145636001</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.678081481085135</v>
+        <v>0.6753190883743247</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>121480</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>105701</v>
+        <v>104828</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>140078</v>
+        <v>137671</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4477485733881004</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3895895384168954</v>
+        <v>0.3863728768990197</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5162946047653808</v>
+        <v>0.507421386277999</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>66</v>
@@ -836,19 +836,19 @@
         <v>72778</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>58063</v>
+        <v>58206</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>88687</v>
+        <v>88865</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2790163737898791</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.222602524934184</v>
+        <v>0.2231507753337985</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.340008838785134</v>
+        <v>0.3406922486022046</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>186</v>
@@ -857,19 +857,19 @@
         <v>194259</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>171310</v>
+        <v>172780</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>220184</v>
+        <v>216778</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3650432867491594</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3219185189148651</v>
+        <v>0.3246809116256752</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4137624084012613</v>
+        <v>0.4073616854363999</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>281318</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>258108</v>
+        <v>258612</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>302760</v>
+        <v>302221</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5705370550932513</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5234651904662422</v>
+        <v>0.5244873711240822</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6140244599666494</v>
+        <v>0.6129314915920621</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>365</v>
@@ -982,19 +982,19 @@
         <v>368118</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>347431</v>
+        <v>348490</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>387036</v>
+        <v>386698</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7304677190214932</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6894167702474955</v>
+        <v>0.6915192774141835</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7680063980985786</v>
+        <v>0.7673351932587967</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>626</v>
@@ -1003,19 +1003,19 @@
         <v>649436</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>619181</v>
+        <v>618900</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>680433</v>
+        <v>681695</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.6513745214314656</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6210296762817704</v>
+        <v>0.6207468611310654</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6824637619980773</v>
+        <v>0.6837302498795049</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>211757</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>190315</v>
+        <v>190854</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>234967</v>
+        <v>234463</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4294629449067487</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3859755400333504</v>
+        <v>0.3870685084079379</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4765348095337578</v>
+        <v>0.4755126288759178</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>134</v>
@@ -1053,19 +1053,19 @@
         <v>135831</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>116913</v>
+        <v>117251</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>156518</v>
+        <v>155459</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2695322809785068</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2319936019014213</v>
+        <v>0.2326648067412034</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3105832297525045</v>
+        <v>0.3084807225858165</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>338</v>
@@ -1074,19 +1074,19 @@
         <v>347588</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>316591</v>
+        <v>315329</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>377843</v>
+        <v>378124</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3486254785685344</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3175362380019228</v>
+        <v>0.316269750120495</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3789703237182296</v>
+        <v>0.3792531388689346</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>214866</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>197493</v>
+        <v>198689</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>229591</v>
+        <v>232136</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6738872093294677</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.619399963091407</v>
+        <v>0.6231509532689613</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7200674002112356</v>
+        <v>0.7280509547282393</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>278</v>
@@ -1199,19 +1199,19 @@
         <v>277990</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>264024</v>
+        <v>262885</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>290640</v>
+        <v>290093</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8288025918853882</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7871624850447932</v>
+        <v>0.7837664906131818</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8665150816787823</v>
+        <v>0.8648855008708995</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>487</v>
@@ -1220,19 +1220,19 @@
         <v>492857</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>468697</v>
+        <v>468614</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>514399</v>
+        <v>513536</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.753306162504328</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7163796429758915</v>
+        <v>0.7162524016970524</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7862328359718237</v>
+        <v>0.7849139061910385</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>103980</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>89255</v>
+        <v>86710</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>121353</v>
+        <v>120157</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3261127906705323</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2799325997887643</v>
+        <v>0.2719490452717607</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3806000369085931</v>
+        <v>0.3768490467310386</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>57</v>
@@ -1270,19 +1270,19 @@
         <v>57422</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>44772</v>
+        <v>45319</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>71388</v>
+        <v>72527</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1711974081146118</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1334849183212176</v>
+        <v>0.1351144991291004</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2128375149552064</v>
+        <v>0.216233509386818</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>158</v>
@@ -1291,19 +1291,19 @@
         <v>161401</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>139859</v>
+        <v>140722</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>185561</v>
+        <v>185644</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2466938374956719</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2137671640281762</v>
+        <v>0.2150860938089615</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2836203570241085</v>
+        <v>0.2837475983029475</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>214971</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>196384</v>
+        <v>196464</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>233284</v>
+        <v>234728</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5993533752768283</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5475334895213122</v>
+        <v>0.5477556316541087</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.650412993706183</v>
+        <v>0.6544380481530468</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>297</v>
@@ -1416,19 +1416,19 @@
         <v>287021</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>270713</v>
+        <v>269920</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>301303</v>
+        <v>301304</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.7726908252013024</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7287884451210581</v>
+        <v>0.7266544813069589</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8111396513156086</v>
+        <v>0.8111432630094441</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>519</v>
@@ -1437,19 +1437,19 @@
         <v>501991</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>477406</v>
+        <v>479201</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>525473</v>
+        <v>525219</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6875397085380602</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6538672833403685</v>
+        <v>0.6563251496195958</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7197010225342684</v>
+        <v>0.7193535192313907</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>143700</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>125387</v>
+        <v>123943</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>162287</v>
+        <v>162207</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4006466247231718</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3495870062938171</v>
+        <v>0.3455619518469532</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4524665104786879</v>
+        <v>0.4522443683458915</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>87</v>
@@ -1487,19 +1487,19 @@
         <v>84435</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>70153</v>
+        <v>70152</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>100743</v>
+        <v>101536</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2273091747986976</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1888603486843911</v>
+        <v>0.1888567369905558</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2712115548789408</v>
+        <v>0.2733455186930409</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>227</v>
@@ -1508,19 +1508,19 @@
         <v>228136</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>204654</v>
+        <v>204908</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>252721</v>
+        <v>250926</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3124602914619398</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2802989774657316</v>
+        <v>0.2806464807686093</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3461327166596314</v>
+        <v>0.3436748503804042</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>138545</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>124287</v>
+        <v>124084</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>151853</v>
+        <v>150982</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6842073924009774</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6137933367436748</v>
+        <v>0.6127910999056415</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7499295261584201</v>
+        <v>0.7456290957367829</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>156</v>
@@ -1633,19 +1633,19 @@
         <v>165048</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>152746</v>
+        <v>152381</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>175989</v>
+        <v>175415</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7983565818154259</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.73885065653722</v>
+        <v>0.7370834671109016</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8512784178470422</v>
+        <v>0.8485009360672709</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>300</v>
@@ -1654,19 +1654,19 @@
         <v>303593</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>283829</v>
+        <v>285362</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>320427</v>
+        <v>320471</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7418740565165439</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6935766955026408</v>
+        <v>0.697323172910314</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7830095094421701</v>
+        <v>0.7831165364414803</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>63945</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>50637</v>
+        <v>51508</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>78203</v>
+        <v>78406</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3157926075990226</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2500704738415798</v>
+        <v>0.2543709042632169</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3862066632563251</v>
+        <v>0.3872089000943585</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>41</v>
@@ -1704,19 +1704,19 @@
         <v>41687</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>30746</v>
+        <v>31320</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>53989</v>
+        <v>54354</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.201643418184574</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1487215821529579</v>
+        <v>0.1514990639327287</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.26114934346278</v>
+        <v>0.2629165328890981</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>102</v>
@@ -1725,19 +1725,19 @@
         <v>105632</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>88798</v>
+        <v>88754</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>125396</v>
+        <v>123863</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.258125943483456</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2169904905578299</v>
+        <v>0.2168834635585198</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3064233044973593</v>
+        <v>0.3026768270896865</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>167556</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>151351</v>
+        <v>151679</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>184001</v>
+        <v>184258</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.6209888963486866</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.5609299033255345</v>
+        <v>0.5621434981999445</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6819338001447159</v>
+        <v>0.6828886229711365</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>220</v>
@@ -1850,19 +1850,19 @@
         <v>227034</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>215860</v>
+        <v>213590</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>239584</v>
+        <v>238783</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.8162469474485838</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.7760715446912797</v>
+        <v>0.7679119524327833</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.861367945509198</v>
+        <v>0.8584870231890593</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>389</v>
@@ -1871,19 +1871,19 @@
         <v>394591</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>370752</v>
+        <v>374418</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>415367</v>
+        <v>414817</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.7201006072437169</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.6765970608220097</v>
+        <v>0.6832865515551695</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.7580153174295252</v>
+        <v>0.7570117376308476</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>102266</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>85821</v>
+        <v>85564</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>118471</v>
+        <v>118143</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3790111036513134</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3180661998552841</v>
+        <v>0.3171113770288637</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4390700966744656</v>
+        <v>0.4378565018000556</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>50</v>
@@ -1921,19 +1921,19 @@
         <v>51110</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>38560</v>
+        <v>39361</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>62284</v>
+        <v>64554</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1837530525514161</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1386320544908019</v>
+        <v>0.14151297681094</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2239284553087202</v>
+        <v>0.2320880475672165</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>146</v>
@@ -1942,19 +1942,19 @@
         <v>153375</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>132599</v>
+        <v>133149</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>177214</v>
+        <v>173548</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.279899392756283</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2419846825704746</v>
+        <v>0.2429882623691523</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3234029391779902</v>
+        <v>0.3167134484448305</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>390377</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>361904</v>
+        <v>366589</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>412521</v>
+        <v>415029</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6356467376903902</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5892835620534455</v>
+        <v>0.5969118128223778</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6717032734786631</v>
+        <v>0.6757867040131604</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>475</v>
@@ -2067,19 +2067,19 @@
         <v>488040</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>467668</v>
+        <v>465660</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>509396</v>
+        <v>509159</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7658610704141052</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7338912662404378</v>
+        <v>0.7307399161828969</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7993732326053267</v>
+        <v>0.7990023077318228</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>856</v>
@@ -2088,19 +2088,19 @@
         <v>878418</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>844584</v>
+        <v>844303</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>910457</v>
+        <v>913771</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7019558217991758</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6749188063582445</v>
+        <v>0.6746939458452708</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7275587099587534</v>
+        <v>0.730207404441013</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>223765</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>201621</v>
+        <v>199113</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>252238</v>
+        <v>247553</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3643532623096098</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3282967265213368</v>
+        <v>0.3242132959868395</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.4107164379465545</v>
+        <v>0.4030881871776222</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>145</v>
@@ -2138,19 +2138,19 @@
         <v>149204</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>127848</v>
+        <v>128085</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>169576</v>
+        <v>171584</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2341389295858947</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2006267673946734</v>
+        <v>0.2009976922681772</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2661087337595622</v>
+        <v>0.2692600838171031</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>361</v>
@@ -2159,19 +2159,19 @@
         <v>372968</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>340929</v>
+        <v>337615</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>406802</v>
+        <v>407083</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2980441782008242</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2724412900412466</v>
+        <v>0.269792595558987</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3250811936417555</v>
+        <v>0.3253060541547293</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>481967</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>459040</v>
+        <v>455326</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>509004</v>
+        <v>508791</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.6523897827645991</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.6213562191657812</v>
+        <v>0.6163286517032486</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.6889869710235582</v>
+        <v>0.6886996687465853</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>553</v>
@@ -2284,19 +2284,19 @@
         <v>583302</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>557732</v>
+        <v>558992</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>607218</v>
+        <v>608297</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.7444719785218126</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.7118367560376888</v>
+        <v>0.7134445171062906</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.7749965603427929</v>
+        <v>0.7763734205228513</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1035</v>
@@ -2305,19 +2305,19 @@
         <v>1065269</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1029707</v>
+        <v>1028356</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1101987</v>
+        <v>1102468</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.6997840237420779</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.6764236123790288</v>
+        <v>0.6755359941493926</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.7239045920441676</v>
+        <v>0.7242207795890061</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>256804</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>229767</v>
+        <v>229980</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>279731</v>
+        <v>283445</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3476102172354009</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3110130289764418</v>
+        <v>0.3113003312534148</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3786437808342187</v>
+        <v>0.3836713482967514</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>192</v>
@@ -2355,19 +2355,19 @@
         <v>200209</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>176293</v>
+        <v>175214</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>225779</v>
+        <v>224519</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2555280214781874</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2250034396572071</v>
+        <v>0.2236265794771487</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2881632439623112</v>
+        <v>0.2865554828937094</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>441</v>
@@ -2376,19 +2376,19 @@
         <v>457013</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>420295</v>
+        <v>419814</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>492575</v>
+        <v>493926</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3002159762579221</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2760954079558324</v>
+        <v>0.2757792204109942</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3235763876209709</v>
+        <v>0.3244640058506074</v>
       </c>
     </row>
     <row r="27">
@@ -2480,19 +2480,19 @@
         <v>2039434</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1980352</v>
+        <v>1983491</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2094962</v>
+        <v>2100086</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.6242276955569039</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.6061439617617165</v>
+        <v>0.6071045534179215</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.6412234208557039</v>
+        <v>0.642791807674418</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2523</v>
@@ -2501,19 +2501,19 @@
         <v>2584614</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2537164</v>
+        <v>2532818</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2631908</v>
+        <v>2631371</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.7652925706874355</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.7512426475852377</v>
+        <v>0.7499558508446812</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.7792960309406581</v>
+        <v>0.7791370829611663</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>4541</v>
@@ -2522,19 +2522,19 @@
         <v>4624048</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>4544056</v>
+        <v>4543884</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>4697099</v>
+        <v>4696312</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.6959294833155656</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.6838903940609194</v>
+        <v>0.6838645647773079</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.7069237393564309</v>
+        <v>0.7068052357569956</v>
       </c>
     </row>
     <row r="29">
@@ -2551,19 +2551,19 @@
         <v>1227698</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1172170</v>
+        <v>1167046</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1286780</v>
+        <v>1283641</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3757723044430961</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.358776579144296</v>
+        <v>0.3572081923255819</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3938560382382834</v>
+        <v>0.3928954465820785</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>772</v>
@@ -2572,19 +2572,19 @@
         <v>792675</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>745381</v>
+        <v>745918</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>840125</v>
+        <v>844471</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2347074293125644</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2207039690593418</v>
+        <v>0.2208629170388339</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2487573524147623</v>
+        <v>0.2500441491553189</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1959</v>
@@ -2593,19 +2593,19 @@
         <v>2020373</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1947322</v>
+        <v>1948109</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2100365</v>
+        <v>2100537</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3040705166844344</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2930762606435692</v>
+        <v>0.2931947642430048</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3161096059390808</v>
+        <v>0.316135435222692</v>
       </c>
     </row>
     <row r="30">
@@ -2941,19 +2941,19 @@
         <v>199920</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>181987</v>
+        <v>183178</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>216732</v>
+        <v>215163</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6782974040694445</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6174550987349546</v>
+        <v>0.6214930836422524</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7353382082628405</v>
+        <v>0.7300130386335317</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>203</v>
@@ -2962,19 +2962,19 @@
         <v>225929</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>211606</v>
+        <v>209002</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>240930</v>
+        <v>239922</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7865373766011827</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7366750068775907</v>
+        <v>0.727607953470916</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.838762720363695</v>
+        <v>0.8352511123614634</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>396</v>
@@ -2983,19 +2983,19 @@
         <v>425849</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>401925</v>
+        <v>403831</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>445995</v>
+        <v>446985</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7317205956097439</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6906124542543811</v>
+        <v>0.6938879656850298</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7663371468747986</v>
+        <v>0.7680376204964794</v>
       </c>
     </row>
     <row r="5">
@@ -3012,19 +3012,19 @@
         <v>94818</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>78006</v>
+        <v>79575</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>112751</v>
+        <v>111560</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3217025959305554</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2646617917371595</v>
+        <v>0.269986961366468</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3825449012650453</v>
+        <v>0.3785069163577476</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>53</v>
@@ -3033,19 +3033,19 @@
         <v>61316</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>46315</v>
+        <v>47323</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>75639</v>
+        <v>78243</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2134626233988172</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1612372796363049</v>
+        <v>0.1647488876385366</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2633249931224089</v>
+        <v>0.2723920465290841</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>142</v>
@@ -3054,19 +3054,19 @@
         <v>156134</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>135988</v>
+        <v>134998</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>180058</v>
+        <v>178152</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2682794043902562</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2336628531252015</v>
+        <v>0.2319623795035206</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3093875457456188</v>
+        <v>0.3061120343149702</v>
       </c>
     </row>
     <row r="6">
@@ -3158,19 +3158,19 @@
         <v>363224</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>342206</v>
+        <v>341294</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>385191</v>
+        <v>382756</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.720014012409099</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6783501237999109</v>
+        <v>0.6765427514392497</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.763559242224459</v>
+        <v>0.758732163068629</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>389</v>
@@ -3179,19 +3179,19 @@
         <v>422000</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>401479</v>
+        <v>402922</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>442361</v>
+        <v>440909</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.8057041197415821</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.766524852691538</v>
+        <v>0.7692805604786404</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.844578471042623</v>
+        <v>0.8418073761318661</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>725</v>
@@ -3200,19 +3200,19 @@
         <v>785224</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>755730</v>
+        <v>759822</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>812211</v>
+        <v>812223</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7636631561325535</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7349789942185151</v>
+        <v>0.7389588771442914</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7899096534373703</v>
+        <v>0.7899215482844471</v>
       </c>
     </row>
     <row r="8">
@@ -3229,19 +3229,19 @@
         <v>141244</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>119277</v>
+        <v>121712</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>162262</v>
+        <v>163174</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.279985987590901</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2364407577755409</v>
+        <v>0.241267836931371</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3216498762000891</v>
+        <v>0.3234572485607502</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>91</v>
@@ -3250,19 +3250,19 @@
         <v>101765</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>81404</v>
+        <v>82856</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>122286</v>
+        <v>120843</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.194295880258418</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1554215289573772</v>
+        <v>0.158192623868134</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2334751473084622</v>
+        <v>0.2307194395213597</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>226</v>
@@ -3271,19 +3271,19 @@
         <v>243009</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>216022</v>
+        <v>216010</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>272503</v>
+        <v>268411</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2363368438674465</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2100903465626297</v>
+        <v>0.2100784517155529</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2650210057814849</v>
+        <v>0.2610411228557086</v>
       </c>
     </row>
     <row r="9">
@@ -3375,19 +3375,19 @@
         <v>256791</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>241109</v>
+        <v>238737</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>272209</v>
+        <v>270757</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7924520690989444</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.744058360684644</v>
+        <v>0.7367387936098205</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8400328164258184</v>
+        <v>0.8355518219446021</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>292</v>
@@ -3396,19 +3396,19 @@
         <v>315206</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>303900</v>
+        <v>303883</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>324200</v>
+        <v>323536</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9243042748301784</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8911497935790359</v>
+        <v>0.8910992018754371</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9506767878708773</v>
+        <v>0.9487304764875129</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>544</v>
@@ -3417,19 +3417,19 @@
         <v>571997</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>551841</v>
+        <v>551824</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>588767</v>
+        <v>589801</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8600607570638423</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8297531458193373</v>
+        <v>0.8297284741455254</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8852761344373484</v>
+        <v>0.8868312583649725</v>
       </c>
     </row>
     <row r="11">
@@ -3446,19 +3446,19 @@
         <v>67255</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>51837</v>
+        <v>53289</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>82937</v>
+        <v>85309</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2075479309010556</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1599671835741818</v>
+        <v>0.1644481780553979</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2559416393153561</v>
+        <v>0.2632612063901794</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>25</v>
@@ -3467,19 +3467,19 @@
         <v>25814</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>16820</v>
+        <v>17484</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>37120</v>
+        <v>37137</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.07569572516982158</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.0493232121291226</v>
+        <v>0.05126952351248674</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1088502064209637</v>
+        <v>0.1089007981245627</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>92</v>
@@ -3488,19 +3488,19 @@
         <v>93069</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>76299</v>
+        <v>75265</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>113225</v>
+        <v>113242</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1399392429361577</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1147238655626518</v>
+        <v>0.1131687416350276</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1702468541806629</v>
+        <v>0.1702715258544747</v>
       </c>
     </row>
     <row r="12">
@@ -3592,19 +3592,19 @@
         <v>257399</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>237880</v>
+        <v>239688</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>275055</v>
+        <v>275048</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.688267056295248</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6360723412791658</v>
+        <v>0.6409068583109192</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.73547563484576</v>
+        <v>0.7354585692539094</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>313</v>
@@ -3613,19 +3613,19 @@
         <v>327520</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>311105</v>
+        <v>311611</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>341236</v>
+        <v>341316</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.842060410906736</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.799857784544088</v>
+        <v>0.8011575102242542</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8773228371420796</v>
+        <v>0.8775305322016849</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>549</v>
@@ -3634,19 +3634,19 @@
         <v>584920</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>561250</v>
+        <v>559527</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>607989</v>
+        <v>607653</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.7666724598478911</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7356482088735067</v>
+        <v>0.7333897774145886</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7969102087514975</v>
+        <v>0.7964696484853728</v>
       </c>
     </row>
     <row r="14">
@@ -3663,19 +3663,19 @@
         <v>116583</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>98927</v>
+        <v>98934</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>136102</v>
+        <v>134294</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.311732943704752</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2645243651542403</v>
+        <v>0.2645414307460907</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3639276587208344</v>
+        <v>0.3590931416890809</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>58</v>
@@ -3684,19 +3684,19 @@
         <v>61431</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>47715</v>
+        <v>47635</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>77846</v>
+        <v>77340</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.157939589093264</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1226771628579204</v>
+        <v>0.1224694677983151</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2001422154559118</v>
+        <v>0.1988424897757457</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>166</v>
@@ -3705,19 +3705,19 @@
         <v>178013</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>154944</v>
+        <v>155280</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>201683</v>
+        <v>203406</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2333275401521089</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2030897912485027</v>
+        <v>0.2035303515146273</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2643517911264934</v>
+        <v>0.2666102225854115</v>
       </c>
     </row>
     <row r="15">
@@ -3809,19 +3809,19 @@
         <v>160251</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>146817</v>
+        <v>146183</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>172745</v>
+        <v>172017</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7537055967196089</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6905218628682179</v>
+        <v>0.6875373312410828</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8124645057577987</v>
+        <v>0.8090407099808075</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>185</v>
@@ -3830,19 +3830,19 @@
         <v>192014</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>181039</v>
+        <v>181346</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>200789</v>
+        <v>200717</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8744165272079641</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8244367825619984</v>
+        <v>0.8258367717516329</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9143773504127868</v>
+        <v>0.9140507702149108</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>332</v>
@@ -3851,19 +3851,19 @@
         <v>352265</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>336145</v>
+        <v>335355</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>369385</v>
+        <v>367695</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8150347951458317</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7777363354283848</v>
+        <v>0.7759083929431688</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8546446856311449</v>
+        <v>0.8507353700041412</v>
       </c>
     </row>
     <row r="17">
@@ -3880,19 +3880,19 @@
         <v>52367</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>39873</v>
+        <v>40601</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>65801</v>
+        <v>66435</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.246294403280391</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.187535494242201</v>
+        <v>0.1909592900191925</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3094781371317819</v>
+        <v>0.3124626687589169</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>27</v>
@@ -3901,19 +3901,19 @@
         <v>27577</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>18802</v>
+        <v>18874</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>38552</v>
+        <v>38245</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1255834727920359</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.08562264958721338</v>
+        <v>0.08594922978508887</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1755632174380017</v>
+        <v>0.1741632282483667</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>76</v>
@@ -3922,19 +3922,19 @@
         <v>79944</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>62824</v>
+        <v>64514</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>96064</v>
+        <v>96854</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1849652048541684</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1453553143688549</v>
+        <v>0.1492646299958587</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2222636645716152</v>
+        <v>0.2240916070568311</v>
       </c>
     </row>
     <row r="18">
@@ -4026,19 +4026,19 @@
         <v>210399</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>194453</v>
+        <v>194190</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>223772</v>
+        <v>225168</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.7679312012683129</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.7097327240961869</v>
+        <v>0.708773191343244</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.8167423410835533</v>
+        <v>0.8218380409387687</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>238</v>
@@ -4047,19 +4047,19 @@
         <v>247363</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>234535</v>
+        <v>235728</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>256920</v>
+        <v>258003</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.8833414726291303</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.8375338714443864</v>
+        <v>0.841790861994858</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.9174681729573567</v>
+        <v>0.9213369857746447</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>439</v>
@@ -4068,19 +4068,19 @@
         <v>457762</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>440428</v>
+        <v>440065</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>476387</v>
+        <v>476409</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.8262664961392538</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.794978992020959</v>
+        <v>0.7943244380367999</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.8598854720703766</v>
+        <v>0.8599261145852068</v>
       </c>
     </row>
     <row r="20">
@@ -4097,19 +4097,19 @@
         <v>63582</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>50209</v>
+        <v>48813</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>79528</v>
+        <v>79791</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2320687987316871</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1832576589164467</v>
+        <v>0.1781619590612312</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2902672759038132</v>
+        <v>0.2912268086567559</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>31</v>
@@ -4118,19 +4118,19 @@
         <v>32668</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>23111</v>
+        <v>22028</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>45496</v>
+        <v>44303</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1166585273708697</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.08253182704264332</v>
+        <v>0.07866301422535524</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1624661285556137</v>
+        <v>0.158209138005142</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>91</v>
@@ -4139,19 +4139,19 @@
         <v>96250</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>77625</v>
+        <v>77603</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>113584</v>
+        <v>113947</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1737335038607461</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1401145279296232</v>
+        <v>0.1400738854147931</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2050210079790409</v>
+        <v>0.2056755619632001</v>
       </c>
     </row>
     <row r="21">
@@ -4243,19 +4243,19 @@
         <v>480763</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>457859</v>
+        <v>454100</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>504990</v>
+        <v>502507</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7253651448123705</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6908083541839796</v>
+        <v>0.6851357998682294</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7619180923657485</v>
+        <v>0.7581711137984016</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>536</v>
@@ -4264,19 +4264,19 @@
         <v>583237</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>562077</v>
+        <v>562750</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>601723</v>
+        <v>602357</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8417563131065734</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8112177012150367</v>
+        <v>0.8121878503626146</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8684365044957834</v>
+        <v>0.8693518419032555</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>982</v>
@@ -4285,19 +4285,19 @@
         <v>1064000</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1031151</v>
+        <v>1035993</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1096413</v>
+        <v>1095464</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7848525371361552</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7606217574068375</v>
+        <v>0.7641933616945042</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8087619362911505</v>
+        <v>0.8080615912404289</v>
       </c>
     </row>
     <row r="23">
@@ -4314,19 +4314,19 @@
         <v>182025</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>157798</v>
+        <v>160281</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>204929</v>
+        <v>208688</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2746348551876295</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2380819076342517</v>
+        <v>0.2418288862015983</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3091916458160205</v>
+        <v>0.3148642001317707</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>99</v>
@@ -4335,19 +4335,19 @@
         <v>109644</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>91158</v>
+        <v>90524</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>130804</v>
+        <v>130131</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1582436868934266</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1315634955042167</v>
+        <v>0.1306481580967442</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1887822987849635</v>
+        <v>0.1878121496373852</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>271</v>
@@ -4356,19 +4356,19 @@
         <v>291669</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>259256</v>
+        <v>260205</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>324518</v>
+        <v>319676</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2151474628638448</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1912380637088495</v>
+        <v>0.1919384087595711</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2393782425931626</v>
+        <v>0.2358066383054957</v>
       </c>
     </row>
     <row r="24">
@@ -4460,19 +4460,19 @@
         <v>504713</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>475381</v>
+        <v>478915</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>531251</v>
+        <v>533958</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.648683959274021</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.6109843564716535</v>
+        <v>0.6155262576131405</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.6827916283362138</v>
+        <v>0.686270785171491</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>559</v>
@@ -4481,19 +4481,19 @@
         <v>608489</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>577942</v>
+        <v>584181</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>632264</v>
+        <v>633869</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.7405743961247937</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.7033964080714489</v>
+        <v>0.7109895916751444</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.7695105318426728</v>
+        <v>0.7714631423165378</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1016</v>
@@ -4502,19 +4502,19 @@
         <v>1113202</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1073497</v>
+        <v>1071001</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1148604</v>
+        <v>1151865</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.6958810581143352</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.6710605629558265</v>
+        <v>0.6695000233557485</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.7180114113308659</v>
+        <v>0.7200500038072459</v>
       </c>
     </row>
     <row r="26">
@@ -4531,19 +4531,19 @@
         <v>273344</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>246806</v>
+        <v>244099</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>302676</v>
+        <v>299142</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3513160407259789</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3172083716637863</v>
+        <v>0.313729214828509</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3890156435283466</v>
+        <v>0.3844737423868595</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>196</v>
@@ -4552,19 +4552,19 @@
         <v>213156</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>189381</v>
+        <v>187776</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>243703</v>
+        <v>237464</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2594256038752063</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2304894681573272</v>
+        <v>0.2285368576834623</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2966035919285512</v>
+        <v>0.2890104083248556</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>455</v>
@@ -4573,19 +4573,19 @@
         <v>486500</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>451098</v>
+        <v>447837</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>526205</v>
+        <v>528701</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3041189418856647</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2819885886691342</v>
+        <v>0.279949996192754</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3289394370441737</v>
+        <v>0.3304999766442515</v>
       </c>
     </row>
     <row r="27">
@@ -4677,19 +4677,19 @@
         <v>2433461</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2378512</v>
+        <v>2377956</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2489437</v>
+        <v>2485272</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.7105663019813385</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.6945214692876374</v>
+        <v>0.6943590784963801</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.7269112551938095</v>
+        <v>0.7256949718838004</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2715</v>
@@ -4698,19 +4698,19 @@
         <v>2921758</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2871138</v>
+        <v>2869315</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2970819</v>
+        <v>2965915</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.8218431012966406</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.8076043635527712</v>
+        <v>0.8070916908929641</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.8356432116062803</v>
+        <v>0.8342635721708344</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>4983</v>
@@ -4719,19 +4719,19 @@
         <v>5355219</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>5278900</v>
+        <v>5280112</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>5423511</v>
+        <v>5424950</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.7672445647824615</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.756310306473623</v>
+        <v>0.7564840052047532</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.7770287606178909</v>
+        <v>0.777234981392992</v>
       </c>
     </row>
     <row r="29">
@@ -4748,19 +4748,19 @@
         <v>991217</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>935241</v>
+        <v>939406</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1046166</v>
+        <v>1046722</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2894336980186615</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2730887448061906</v>
+        <v>0.2743050281161997</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.305478530712363</v>
+        <v>0.3056409215036199</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>580</v>
@@ -4769,19 +4769,19 @@
         <v>633371</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>584310</v>
+        <v>589214</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>683991</v>
+        <v>685814</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1781568987033594</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1643567883937198</v>
+        <v>0.1657364278291657</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1923956364472288</v>
+        <v>0.192908309107036</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1519</v>
@@ -4790,19 +4790,19 @@
         <v>1624588</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1556296</v>
+        <v>1554857</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1700907</v>
+        <v>1699695</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2327554352175384</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.222971239382109</v>
+        <v>0.222765018607008</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2436896935263771</v>
+        <v>0.2435159947952464</v>
       </c>
     </row>
     <row r="30">
@@ -5138,19 +5138,19 @@
         <v>198761</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>181403</v>
+        <v>181300</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>215134</v>
+        <v>213455</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6790582861732933</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.619756917788655</v>
+        <v>0.6194046324053702</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7349964693157512</v>
+        <v>0.7292587335596898</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>207</v>
@@ -5159,19 +5159,19 @@
         <v>215262</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>200289</v>
+        <v>198607</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>229112</v>
+        <v>229318</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7515911542025969</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6993102738485707</v>
+        <v>0.6934371132684345</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7999472682565049</v>
+        <v>0.8006676011173632</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>388</v>
@@ -5180,19 +5180,19 @@
         <v>414023</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>390988</v>
+        <v>391904</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>438098</v>
+        <v>434740</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7149306535297003</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.675153937682623</v>
+        <v>0.6767357905311745</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.756501546551153</v>
+        <v>0.7507031926497783</v>
       </c>
     </row>
     <row r="5">
@@ -5209,19 +5209,19 @@
         <v>93940</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>77567</v>
+        <v>79246</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>111298</v>
+        <v>111401</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3209417138267067</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2650035306842487</v>
+        <v>0.2707412664403104</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.380243082211345</v>
+        <v>0.3805953675946299</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>68</v>
@@ -5230,19 +5230,19 @@
         <v>71147</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>57297</v>
+        <v>57091</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>86120</v>
+        <v>87802</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.248408845797403</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2000527317434951</v>
+        <v>0.1993323988826367</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3006897261514292</v>
+        <v>0.3065628867315652</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>152</v>
@@ -5251,19 +5251,19 @@
         <v>165087</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>141012</v>
+        <v>144370</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>188122</v>
+        <v>187206</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2850693464702997</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.243498453448847</v>
+        <v>0.2492968073502218</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3248460623173771</v>
+        <v>0.3232642094688255</v>
       </c>
     </row>
     <row r="6">
@@ -5355,19 +5355,19 @@
         <v>300151</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>278022</v>
+        <v>275478</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>321918</v>
+        <v>321711</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5985740070097053</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5544439931138153</v>
+        <v>0.5493713809812421</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6419831998641711</v>
+        <v>0.6415711567531318</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>321</v>
@@ -5376,19 +5376,19 @@
         <v>352526</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>329754</v>
+        <v>330556</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>372450</v>
+        <v>372251</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.677596659158913</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6338267274171596</v>
+        <v>0.6353679432374029</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7158929523565462</v>
+        <v>0.7155104023175509</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>602</v>
@@ -5397,19 +5397,19 @@
         <v>652676</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>622566</v>
+        <v>621759</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>682846</v>
+        <v>681747</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.6388129727676608</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6093424092650843</v>
+        <v>0.6085519149615746</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6683416809239854</v>
+        <v>0.6672661823186875</v>
       </c>
     </row>
     <row r="8">
@@ -5426,19 +5426,19 @@
         <v>201292</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>179525</v>
+        <v>179732</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>223421</v>
+        <v>225965</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4014259929902946</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.358016800135829</v>
+        <v>0.3584288432468682</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4455560068861849</v>
+        <v>0.4506286190187581</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>160</v>
@@ -5447,19 +5447,19 @@
         <v>167733</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>147809</v>
+        <v>148008</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>190505</v>
+        <v>189703</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.322403340841087</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2841070476434538</v>
+        <v>0.2844895976824491</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3661732725828405</v>
+        <v>0.3646320567625971</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>353</v>
@@ -5468,19 +5468,19 @@
         <v>369026</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>338856</v>
+        <v>339955</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>399136</v>
+        <v>399943</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3611870272323391</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3316583190760147</v>
+        <v>0.3327338176813122</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3906575907349157</v>
+        <v>0.3914480850384254</v>
       </c>
     </row>
     <row r="9">
@@ -5572,19 +5572,19 @@
         <v>247265</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>231220</v>
+        <v>231769</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>260904</v>
+        <v>261216</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7761852333663261</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7258189052167131</v>
+        <v>0.727541493760546</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.81899795068334</v>
+        <v>0.8199762428134852</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>282</v>
@@ -5593,19 +5593,19 @@
         <v>286061</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>271455</v>
+        <v>272528</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>298770</v>
+        <v>298160</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8505896127764538</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8071581565955218</v>
+        <v>0.8103485745851406</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8883800057333149</v>
+        <v>0.8865666478984855</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>547</v>
@@ -5614,19 +5614,19 @@
         <v>533326</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>511963</v>
+        <v>510650</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>552351</v>
+        <v>551450</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8143954273867051</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7817738945681453</v>
+        <v>0.7797676622757044</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8434459676606127</v>
+        <v>0.8420705950738495</v>
       </c>
     </row>
     <row r="11">
@@ -5643,19 +5643,19 @@
         <v>71300</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>57661</v>
+        <v>57349</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>87345</v>
+        <v>86796</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.223814766633674</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.18100204931666</v>
+        <v>0.1800237571865147</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2741810947832868</v>
+        <v>0.272458506239454</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>50</v>
@@ -5664,19 +5664,19 @@
         <v>50248</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>37539</v>
+        <v>38149</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>64854</v>
+        <v>63781</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1494103872235462</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1116199942666851</v>
+        <v>0.1134333521015146</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1928418434044777</v>
+        <v>0.1896514254148593</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>120</v>
@@ -5685,19 +5685,19 @@
         <v>121548</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>102523</v>
+        <v>103424</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>142911</v>
+        <v>144224</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1856045726132949</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1565540323393873</v>
+        <v>0.1579294049261504</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2182261054318547</v>
+        <v>0.2202323377242956</v>
       </c>
     </row>
     <row r="12">
@@ -5789,19 +5789,19 @@
         <v>314105</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>299293</v>
+        <v>298333</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>327613</v>
+        <v>326847</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8490151700772187</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8089774038748339</v>
+        <v>0.8063849499426543</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8855266795293028</v>
+        <v>0.8834553885443365</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>311</v>
@@ -5810,19 +5810,19 @@
         <v>337293</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>323414</v>
+        <v>323429</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>350255</v>
+        <v>349551</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.872908001794967</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.8369872687308204</v>
+        <v>0.837028215008003</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.9064514347879222</v>
+        <v>0.9046300821717351</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>612</v>
@@ -5831,19 +5831,19 @@
         <v>651398</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>631242</v>
+        <v>632257</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>670799</v>
+        <v>670448</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.8612212158680863</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.8345716590604453</v>
+        <v>0.8359134795464747</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.8868713298596953</v>
+        <v>0.8864073701314665</v>
       </c>
     </row>
     <row r="14">
@@ -5860,19 +5860,19 @@
         <v>55859</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>42351</v>
+        <v>43117</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>70671</v>
+        <v>71631</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1509848299227813</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1144733204706973</v>
+        <v>0.1165446114556635</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1910225961251662</v>
+        <v>0.1936150500573456</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>46</v>
@@ -5881,19 +5881,19 @@
         <v>49109</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>36147</v>
+        <v>36851</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>62988</v>
+        <v>62973</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.127091998205033</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.09354856521207801</v>
+        <v>0.09536991782826479</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1630127312691796</v>
+        <v>0.1629717849919969</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>99</v>
@@ -5902,19 +5902,19 @@
         <v>104968</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>85567</v>
+        <v>85918</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>125124</v>
+        <v>124109</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1387787841319137</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1131286701403047</v>
+        <v>0.1135926298685333</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1654283409395546</v>
+        <v>0.1640865204535253</v>
       </c>
     </row>
     <row r="15">
@@ -6006,19 +6006,19 @@
         <v>163635</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>150324</v>
+        <v>150523</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>174763</v>
+        <v>174328</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7747117072052949</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7116928317476494</v>
+        <v>0.7126310055348182</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8273951136504144</v>
+        <v>0.825335770271451</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>201</v>
@@ -6027,19 +6027,19 @@
         <v>196298</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>186042</v>
+        <v>186535</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>203604</v>
+        <v>203896</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.9057673538483092</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8584425099132508</v>
+        <v>0.8607173420547772</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9394810648031098</v>
+        <v>0.9408248428139677</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>365</v>
@@ -6048,19 +6048,19 @@
         <v>359933</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>344148</v>
+        <v>344319</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>375108</v>
+        <v>374170</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8410814837308837</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8041958024799066</v>
+        <v>0.8045948824793584</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8765419015225545</v>
+        <v>0.8743492834495887</v>
       </c>
     </row>
     <row r="17">
@@ -6077,19 +6077,19 @@
         <v>47586</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>36458</v>
+        <v>36893</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>60897</v>
+        <v>60698</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2252882927947051</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1726048863495855</v>
+        <v>0.1746642297285489</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.28830716825235</v>
+        <v>0.2873689944651818</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>20</v>
@@ -6098,19 +6098,19 @@
         <v>20422</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>13116</v>
+        <v>12824</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>30678</v>
+        <v>30185</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.09423264615169084</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.06051893519689028</v>
+        <v>0.05917515718603223</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1415574900867493</v>
+        <v>0.1392826579452227</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>68</v>
@@ -6119,19 +6119,19 @@
         <v>68008</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>52833</v>
+        <v>53771</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>83793</v>
+        <v>83622</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1589185162691164</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1234580984774456</v>
+        <v>0.1256507165504112</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1958041975200935</v>
+        <v>0.1954051175206415</v>
       </c>
     </row>
     <row r="18">
@@ -6223,19 +6223,19 @@
         <v>217176</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>204361</v>
+        <v>203276</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>228684</v>
+        <v>229300</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.825379848750538</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.7766741461252324</v>
+        <v>0.7725512464401522</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.8691147442693744</v>
+        <v>0.8714544918367046</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>225</v>
@@ -6244,19 +6244,19 @@
         <v>234750</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>223423</v>
+        <v>222787</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>245081</v>
+        <v>245411</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.8630574294648758</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.8214129995862176</v>
+        <v>0.8190766327932268</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.9010411708737704</v>
+        <v>0.9022519461796988</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>440</v>
@@ -6265,19 +6265,19 @@
         <v>451926</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>433988</v>
+        <v>433060</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>468560</v>
+        <v>466644</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.8445310796014153</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.8110084782165476</v>
+        <v>0.8092744288868745</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.8756152428346353</v>
+        <v>0.8720348015239623</v>
       </c>
     </row>
     <row r="20">
@@ -6294,19 +6294,19 @@
         <v>45947</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>34439</v>
+        <v>33823</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>58762</v>
+        <v>59847</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1746201512494619</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1308852557306255</v>
+        <v>0.1285455081632953</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2233258538747674</v>
+        <v>0.2274487535598474</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>37</v>
@@ -6315,19 +6315,19 @@
         <v>37248</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>26917</v>
+        <v>26587</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>48575</v>
+        <v>49211</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1369425705351242</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.09895882912622954</v>
+        <v>0.09774805382030123</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1785870004137825</v>
+        <v>0.1809233672067732</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>81</v>
@@ -6336,19 +6336,19 @@
         <v>83195</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>66561</v>
+        <v>68477</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>101133</v>
+        <v>102061</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1554689203985847</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1243847571653646</v>
+        <v>0.1279651984760379</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1889915217834523</v>
+        <v>0.1907255711131259</v>
       </c>
     </row>
     <row r="21">
@@ -6440,19 +6440,19 @@
         <v>422549</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>395946</v>
+        <v>395602</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>446954</v>
+        <v>447829</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6501529461043593</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6092200982197986</v>
+        <v>0.608690505613307</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6877027588333051</v>
+        <v>0.6890499978608693</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>482</v>
@@ -6461,19 +6461,19 @@
         <v>522858</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>496642</v>
+        <v>498960</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>544057</v>
+        <v>545058</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7585132251344809</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7204806149897764</v>
+        <v>0.7238436487420165</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7892664122947436</v>
+        <v>0.7907191092674869</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>855</v>
@@ -6482,19 +6482,19 @@
         <v>945408</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>909925</v>
+        <v>911030</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>977487</v>
+        <v>979203</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7059268885865814</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6794321062812443</v>
+        <v>0.680257636520875</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7298799935819602</v>
+        <v>0.7311612705295476</v>
       </c>
     </row>
     <row r="23">
@@ -6511,19 +6511,19 @@
         <v>227374</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>202969</v>
+        <v>202094</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>253977</v>
+        <v>254321</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3498470538956407</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3122972411666949</v>
+        <v>0.3109500021391308</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3907799017802012</v>
+        <v>0.391309494386693</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>162</v>
@@ -6532,19 +6532,19 @@
         <v>166462</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>145263</v>
+        <v>144262</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>192678</v>
+        <v>190360</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2414867748655191</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2107335877052564</v>
+        <v>0.2092808907325131</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2795193850102236</v>
+        <v>0.2761563512579835</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>363</v>
@@ -6553,19 +6553,19 @@
         <v>393835</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>361756</v>
+        <v>360040</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>429318</v>
+        <v>428213</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2940731114134186</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2701200064180398</v>
+        <v>0.2688387294704524</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3205678937187557</v>
+        <v>0.319742363479125</v>
       </c>
     </row>
     <row r="24">
@@ -6657,19 +6657,19 @@
         <v>649708</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>626200</v>
+        <v>622663</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>669336</v>
+        <v>667757</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.8344754945480917</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.8042813887951601</v>
+        <v>0.7997384561514449</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.8596850781695696</v>
+        <v>0.857656367431651</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>663</v>
@@ -6678,19 +6678,19 @@
         <v>730642</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>710738</v>
+        <v>709394</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>747631</v>
+        <v>747353</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.8866716148413183</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.8625164991207138</v>
+        <v>0.860886216520664</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.9072887811247706</v>
+        <v>0.9069513015328187</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1290</v>
@@ -6699,19 +6699,19 @@
         <v>1380351</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1349933</v>
+        <v>1350965</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1406233</v>
+        <v>1406522</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.8613136096827277</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.8423336655819804</v>
+        <v>0.842977777272699</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.8774634244777344</v>
+        <v>0.8776439833647424</v>
       </c>
     </row>
     <row r="26">
@@ -6728,19 +6728,19 @@
         <v>128875</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>109247</v>
+        <v>110826</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>152383</v>
+        <v>155920</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1655245054519084</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1403149218304302</v>
+        <v>0.142343632568349</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1957186112048397</v>
+        <v>0.2002615438485551</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>90</v>
@@ -6749,19 +6749,19 @@
         <v>93386</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>76397</v>
+        <v>76675</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>113290</v>
+        <v>114634</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1133283851586818</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.09271121887522944</v>
+        <v>0.09304869846718142</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1374835008792863</v>
+        <v>0.1391137834793365</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>213</v>
@@ -6770,19 +6770,19 @@
         <v>222260</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>196378</v>
+        <v>196089</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>252678</v>
+        <v>251646</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1386863903172723</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1225365755222657</v>
+        <v>0.1223560166352572</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.15766633441802</v>
+        <v>0.1570222227273009</v>
       </c>
     </row>
     <row r="27">
@@ -6874,19 +6874,19 @@
         <v>2513353</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2459530</v>
+        <v>2456560</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2564680</v>
+        <v>2561486</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.742382130370966</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.7264844021489205</v>
+        <v>0.7256070227215125</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.7575429209626804</v>
+        <v>0.7565996703382448</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2692</v>
@@ -6895,19 +6895,19 @@
         <v>2875689</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2820278</v>
+        <v>2828469</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2917503</v>
+        <v>2922188</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.8143099857757806</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.798619190484875</v>
+        <v>0.8009387156837005</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.8261502981281649</v>
+        <v>0.8274769917196019</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>5099</v>
@@ -6916,19 +6916,19 @@
         <v>5389042</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>5321439</v>
+        <v>5316803</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>5457544</v>
+        <v>5459842</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.7791047487428887</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.7693312958272205</v>
+        <v>0.7686610544541309</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.7890082952081113</v>
+        <v>0.7893404346907288</v>
       </c>
     </row>
     <row r="29">
@@ -6945,19 +6945,19 @@
         <v>872171</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>820844</v>
+        <v>824038</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>925994</v>
+        <v>928964</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.257617869629034</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2424570790373195</v>
+        <v>0.2434003296617553</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2735155978510794</v>
+        <v>0.2743929772784876</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>633</v>
@@ -6966,19 +6966,19 @@
         <v>655754</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>613940</v>
+        <v>609255</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>711165</v>
+        <v>702974</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1856900142242194</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.173849701871835</v>
+        <v>0.1725230082803981</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2013808095151249</v>
+        <v>0.1990612843162996</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1449</v>
@@ -6987,19 +6987,19 @@
         <v>1527925</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1459423</v>
+        <v>1457125</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1595528</v>
+        <v>1600164</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2208952512571112</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2109917047918886</v>
+        <v>0.2106595653092711</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2306687041727795</v>
+        <v>0.2313389455458691</v>
       </c>
     </row>
     <row r="30">
@@ -7335,19 +7335,19 @@
         <v>251448</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>235069</v>
+        <v>236190</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>264852</v>
+        <v>265334</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.7886219576695505</v>
+        <v>0.7886219576695506</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7372510716243594</v>
+        <v>0.7407682258444097</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8306598335387883</v>
+        <v>0.8321730299381614</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>465</v>
@@ -7356,19 +7356,19 @@
         <v>269420</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>256008</v>
+        <v>255422</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>279904</v>
+        <v>279615</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8524295314117587</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8099953201583253</v>
+        <v>0.8081426264414178</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8855999968518602</v>
+        <v>0.8846856755132622</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>728</v>
@@ -7377,19 +7377,19 @@
         <v>520868</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>500517</v>
+        <v>501951</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>539395</v>
+        <v>539651</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8203858175094179</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7883325574152719</v>
+        <v>0.790590479300616</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8495660744512298</v>
+        <v>0.8499701181257365</v>
       </c>
     </row>
     <row r="5">
@@ -7406,19 +7406,19 @@
         <v>67397</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>53993</v>
+        <v>53511</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>83776</v>
+        <v>82655</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.2113780423304495</v>
+        <v>0.2113780423304496</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1693401664612119</v>
+        <v>0.1678269700618385</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2627489283756409</v>
+        <v>0.2592317741555903</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>73</v>
@@ -7427,19 +7427,19 @@
         <v>46641</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>36157</v>
+        <v>36446</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>60053</v>
+        <v>60639</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1475704685882414</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1144000031481397</v>
+        <v>0.1153143244867378</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1900046798416747</v>
+        <v>0.1918573735585822</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>141</v>
@@ -7448,19 +7448,19 @@
         <v>114038</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>95511</v>
+        <v>95255</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>134389</v>
+        <v>132955</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1796141824905822</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1504339255487699</v>
+        <v>0.1500298818742635</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2116674425847281</v>
+        <v>0.2094095206993838</v>
       </c>
     </row>
     <row r="6">
@@ -7552,19 +7552,19 @@
         <v>299502</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>268652</v>
+        <v>269372</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>330623</v>
+        <v>327209</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.5654743506918525</v>
+        <v>0.5654743506918523</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5072292598868504</v>
+        <v>0.5085884985451005</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6242334952100274</v>
+        <v>0.6177874860298231</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>535</v>
@@ -7573,19 +7573,19 @@
         <v>397815</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>375755</v>
+        <v>377948</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>416111</v>
+        <v>417025</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7288541879260261</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6884373834640993</v>
+        <v>0.6924548630289915</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7623739958655146</v>
+        <v>0.7640495823111154</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>771</v>
@@ -7594,19 +7594,19 @@
         <v>697318</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>659652</v>
+        <v>662063</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>732416</v>
+        <v>736702</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.6483919202754334</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6133687339815906</v>
+        <v>0.6156106393680997</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6810273310678292</v>
+        <v>0.6850126912430752</v>
       </c>
     </row>
     <row r="8">
@@ -7623,19 +7623,19 @@
         <v>230145</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>199024</v>
+        <v>202438</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>260995</v>
+        <v>260275</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.4345256493081478</v>
+        <v>0.4345256493081477</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3757665047899729</v>
+        <v>0.3822125139701766</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4927707401131498</v>
+        <v>0.4914115014548992</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>181</v>
@@ -7644,19 +7644,19 @@
         <v>147994</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>129698</v>
+        <v>128784</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>170054</v>
+        <v>167861</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.271145812073974</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2376260041344854</v>
+        <v>0.2359504176888848</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3115626165359004</v>
+        <v>0.3075451369710087</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>326</v>
@@ -7665,19 +7665,19 @@
         <v>378139</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>343041</v>
+        <v>338755</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>415805</v>
+        <v>413394</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.3516080797245666</v>
+        <v>0.3516080797245667</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.318972668932171</v>
+        <v>0.3149873087569251</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3866312660184094</v>
+        <v>0.3843893606319004</v>
       </c>
     </row>
     <row r="9">
@@ -7769,19 +7769,19 @@
         <v>236354</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>219756</v>
+        <v>220391</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>250516</v>
+        <v>252545</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7479707339145385</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6954445865272469</v>
+        <v>0.6974555255039865</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7927911317941263</v>
+        <v>0.799209458455639</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>463</v>
@@ -7790,19 +7790,19 @@
         <v>302733</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>289111</v>
+        <v>289555</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>313378</v>
+        <v>312850</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8494641258255906</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.811241313589415</v>
+        <v>0.8124867241192922</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8793345030460912</v>
+        <v>0.877853494996687</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>746</v>
@@ -7811,19 +7811,19 @@
         <v>539087</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>518388</v>
+        <v>517563</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>556153</v>
+        <v>556988</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.8017656600863016</v>
+        <v>0.8017656600863015</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7709799869943383</v>
+        <v>0.7697537515466415</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8271464550426408</v>
+        <v>0.8283892262713859</v>
       </c>
     </row>
     <row r="11">
@@ -7840,19 +7840,19 @@
         <v>79639</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>65477</v>
+        <v>63448</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>96237</v>
+        <v>95602</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2520292660854614</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2072088682058737</v>
+        <v>0.2007905415443611</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3045554134727538</v>
+        <v>0.3025444744960136</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>73</v>
@@ -7861,19 +7861,19 @@
         <v>53648</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>43003</v>
+        <v>43531</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>67270</v>
+        <v>66826</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1505358741744095</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1206654969539086</v>
+        <v>0.1221465050033127</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.188758686410585</v>
+        <v>0.1875132758807075</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>150</v>
@@ -7882,19 +7882,19 @@
         <v>133288</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>116222</v>
+        <v>115387</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>153987</v>
+        <v>154812</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.1982343399136986</v>
+        <v>0.1982343399136985</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1728535449573591</v>
+        <v>0.1716107737286142</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2290200130056617</v>
+        <v>0.2302462484533584</v>
       </c>
     </row>
     <row r="12">
@@ -7986,19 +7986,19 @@
         <v>255434</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>230328</v>
+        <v>230925</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>278539</v>
+        <v>276916</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.6845430066327881</v>
+        <v>0.684543006632788</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6172604745894853</v>
+        <v>0.6188601174492474</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.746463324047962</v>
+        <v>0.7421145943280293</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>482</v>
@@ -8007,19 +8007,19 @@
         <v>322857</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>302800</v>
+        <v>302908</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>340355</v>
+        <v>341203</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.7651347387002329</v>
+        <v>0.7651347387002331</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7176018476572343</v>
+        <v>0.7178587249538834</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8066041388584796</v>
+        <v>0.8086136310655699</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>695</v>
@@ -8028,19 +8028,19 @@
         <v>578292</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>548007</v>
+        <v>546381</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>608759</v>
+        <v>609747</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.727312868247559</v>
+        <v>0.7273128682475589</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6892242033947977</v>
+        <v>0.687179797172944</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7656319739386203</v>
+        <v>0.7668742324432158</v>
       </c>
     </row>
     <row r="14">
@@ -8057,19 +8057,19 @@
         <v>117711</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>94606</v>
+        <v>96229</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>142817</v>
+        <v>142220</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.315456993367212</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.253536675952038</v>
+        <v>0.2578854056719708</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3827395254105148</v>
+        <v>0.3811398825507524</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>117</v>
@@ -8078,19 +8078,19 @@
         <v>99104</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>81606</v>
+        <v>80758</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>119161</v>
+        <v>119053</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2348652612997672</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1933958611415203</v>
+        <v>0.1913863689344303</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2823981523427656</v>
+        <v>0.2821412750461169</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>196</v>
@@ -8099,19 +8099,19 @@
         <v>216815</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>186348</v>
+        <v>185360</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>247100</v>
+        <v>248726</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.272687131752441</v>
+        <v>0.2726871317524409</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2343680260613797</v>
+        <v>0.2331257675567839</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3107757966052025</v>
+        <v>0.3128202028270559</v>
       </c>
     </row>
     <row r="15">
@@ -8203,19 +8203,19 @@
         <v>71520</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>61043</v>
+        <v>59952</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>84495</v>
+        <v>83849</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3477498072061684</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2968063708797056</v>
+        <v>0.2915011223335997</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4108393194658037</v>
+        <v>0.407699361272678</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>207</v>
@@ -8224,19 +8224,19 @@
         <v>92463</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>81518</v>
+        <v>82537</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>103430</v>
+        <v>103195</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.4083936054122051</v>
+        <v>0.408393605412205</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3600515919996073</v>
+        <v>0.3645531944850697</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4568338445916663</v>
+        <v>0.4557964067188316</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>312</v>
@@ -8245,19 +8245,19 @@
         <v>163982</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>147335</v>
+        <v>148890</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>179329</v>
+        <v>180916</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.379527260229594</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.340998670575304</v>
+        <v>0.3445964505996955</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4150460603625263</v>
+        <v>0.4187198498699569</v>
       </c>
     </row>
     <row r="17">
@@ -8274,19 +8274,19 @@
         <v>134145</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>121170</v>
+        <v>121816</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>144622</v>
+        <v>145713</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6522501927938316</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5891606805341963</v>
+        <v>0.5923006387273222</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7031936291202945</v>
+        <v>0.7084988776664002</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>283</v>
@@ -8295,19 +8295,19 @@
         <v>133943</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>122976</v>
+        <v>123211</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>144888</v>
+        <v>143869</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.5916063945877947</v>
+        <v>0.591606394587795</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5431661554083339</v>
+        <v>0.5442035932811683</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6399484080003928</v>
+        <v>0.6354468055149304</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>457</v>
@@ -8316,19 +8316,19 @@
         <v>268088</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>252741</v>
+        <v>251154</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>284735</v>
+        <v>283180</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.6204727397704061</v>
+        <v>0.620472739770406</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5849539396374737</v>
+        <v>0.5812801501300431</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6590013294246957</v>
+        <v>0.6554035494003044</v>
       </c>
     </row>
     <row r="18">
@@ -8420,19 +8420,19 @@
         <v>208841</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>195310</v>
+        <v>193948</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>221881</v>
+        <v>220907</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.7714654471385506</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.7214794820568637</v>
+        <v>0.7164482617111846</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.8196352451088313</v>
+        <v>0.8160359032538602</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>412</v>
@@ -8441,19 +8441,19 @@
         <v>227293</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>216441</v>
+        <v>216467</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>236874</v>
+        <v>236629</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.8617749173640646</v>
+        <v>0.8617749173640642</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.8206305265128021</v>
+        <v>0.8207278676457188</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.8980996373679072</v>
+        <v>0.8971729515734558</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>720</v>
@@ -8462,19 +8462,19 @@
         <v>436134</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>418091</v>
+        <v>417250</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>450280</v>
+        <v>452098</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.8160324320385529</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.782271644647772</v>
+        <v>0.7806981680263786</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.8425005896494563</v>
+        <v>0.8459011662256878</v>
       </c>
     </row>
     <row r="20">
@@ -8491,19 +8491,19 @@
         <v>61866</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>48826</v>
+        <v>49800</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>75397</v>
+        <v>76759</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2285345528614494</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1803647548911689</v>
+        <v>0.1839640967461393</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2785205179431364</v>
+        <v>0.2835517382888153</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>48</v>
@@ -8512,19 +8512,19 @@
         <v>36457</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>26876</v>
+        <v>27121</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>47309</v>
+        <v>47283</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.1382250826359357</v>
+        <v>0.1382250826359356</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1019003626320925</v>
+        <v>0.1028270484265439</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1793694734871978</v>
+        <v>0.179272132354281</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>111</v>
@@ -8533,19 +8533,19 @@
         <v>98323</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>84177</v>
+        <v>82359</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>116366</v>
+        <v>117207</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.183967567961447</v>
+        <v>0.1839675679614471</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1574994103505434</v>
+        <v>0.1540988337743126</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2177283553522278</v>
+        <v>0.2193018319736216</v>
       </c>
     </row>
     <row r="21">
@@ -8637,19 +8637,19 @@
         <v>449929</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>417541</v>
+        <v>418695</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>478390</v>
+        <v>477744</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6345489251456181</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5888709132343077</v>
+        <v>0.5904983299752526</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6746888477189786</v>
+        <v>0.6737780047465501</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>696</v>
@@ -8658,19 +8658,19 @@
         <v>563309</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>538224</v>
+        <v>539746</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>583601</v>
+        <v>585358</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7366429446820794</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7038386520734357</v>
+        <v>0.7058289160727608</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7631789343220811</v>
+        <v>0.765475645393724</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1079</v>
@@ -8679,19 +8679,19 @@
         <v>1013238</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>977094</v>
+        <v>977619</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1055100</v>
+        <v>1050356</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.6875233289035656</v>
+        <v>0.6875233289035657</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6629985429252241</v>
+        <v>0.6633545745672006</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7159290471016982</v>
+        <v>0.7127095145182003</v>
       </c>
     </row>
     <row r="23">
@@ -8708,19 +8708,19 @@
         <v>259124</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>230663</v>
+        <v>231309</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>291512</v>
+        <v>290358</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.3654510748543818</v>
+        <v>0.3654510748543819</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3253111522810215</v>
+        <v>0.3262219952534499</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.4111290867656924</v>
+        <v>0.4095016700247472</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>255</v>
@@ -8729,19 +8729,19 @@
         <v>201389</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>181097</v>
+        <v>179340</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>226474</v>
+        <v>224952</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2633570553179206</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.236821065677919</v>
+        <v>0.2345243546062757</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2961613479265642</v>
+        <v>0.2941710839272391</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>462</v>
@@ -8750,19 +8750,19 @@
         <v>460512</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>418650</v>
+        <v>423394</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>496656</v>
+        <v>496131</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3124766710964342</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2840709528983017</v>
+        <v>0.2872904854817996</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3370014570747756</v>
+        <v>0.3366454254327994</v>
       </c>
     </row>
     <row r="24">
@@ -8854,19 +8854,19 @@
         <v>610978</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>583435</v>
+        <v>580797</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>638860</v>
+        <v>635126</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.7655673536926982</v>
+        <v>0.7655673536926983</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.7310554648664955</v>
+        <v>0.7277495646394286</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.8005040877090988</v>
+        <v>0.7958249671880536</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>902</v>
@@ -8875,19 +8875,19 @@
         <v>686295</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>664324</v>
+        <v>665354</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>705746</v>
+        <v>708248</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.826867076211569</v>
+        <v>0.8268670762115691</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.8003957129586204</v>
+        <v>0.8016376266464952</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.8503026895837065</v>
+        <v>0.8533169812818409</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1517</v>
@@ -8896,19 +8896,19 @@
         <v>1297273</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1262699</v>
+        <v>1260257</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1329573</v>
+        <v>1331031</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.7968181764394814</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.7755820206711957</v>
+        <v>0.7740822101815966</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.8166579052817133</v>
+        <v>0.8175531743934112</v>
       </c>
     </row>
     <row r="26">
@@ -8925,19 +8925,19 @@
         <v>187094</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>159212</v>
+        <v>162946</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>214637</v>
+        <v>217275</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2344326463073017</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1994959122909012</v>
+        <v>0.2041750328119468</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2689445351335043</v>
+        <v>0.2722504353605719</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>158</v>
@@ -8946,19 +8946,19 @@
         <v>143699</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>124248</v>
+        <v>121746</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>165670</v>
+        <v>164640</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.173132923788431</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1496973104162936</v>
+        <v>0.146683018718159</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1996042870413801</v>
+        <v>0.1983623733535048</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>305</v>
@@ -8967,19 +8967,19 @@
         <v>330793</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>298493</v>
+        <v>297035</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>365367</v>
+        <v>367809</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2031818235605186</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1833420947182867</v>
+        <v>0.1824468256065885</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2244179793288043</v>
+        <v>0.2259177898184033</v>
       </c>
     </row>
     <row r="27">
@@ -9071,19 +9071,19 @@
         <v>2384006</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2319862</v>
+        <v>2315205</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2446000</v>
+        <v>2443762</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.6770574223006476</v>
+        <v>0.6770574223006478</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.6588406325784772</v>
+        <v>0.6575178581577757</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.6946638728315823</v>
+        <v>0.6940281275918756</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>4162</v>
@@ -9092,19 +9092,19 @@
         <v>2862185</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2812791</v>
+        <v>2814670</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2905269</v>
+        <v>2906589</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.7683594315325832</v>
+        <v>0.7683594315325835</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.7550995737333459</v>
+        <v>0.7556038702678599</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.7799253216194872</v>
+        <v>0.7802798375227298</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>6568</v>
@@ -9113,19 +9113,19 @@
         <v>5246191</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>5169389</v>
+        <v>5161962</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>5324736</v>
+        <v>5322271</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.7239932021773502</v>
+        <v>0.7239932021773501</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.7133943232493778</v>
+        <v>0.7123693661084728</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.7348326709550341</v>
+        <v>0.7344924892836033</v>
       </c>
     </row>
     <row r="29">
@@ -9142,19 +9142,19 @@
         <v>1137122</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1075128</v>
+        <v>1077366</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1201266</v>
+        <v>1205923</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3229425776993523</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3053361271684176</v>
+        <v>0.3059718724081247</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3411593674215225</v>
+        <v>0.3424821418422246</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1188</v>
@@ -9163,19 +9163,19 @@
         <v>862875</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>819791</v>
+        <v>818471</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>912269</v>
+        <v>910390</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.2316405684674167</v>
+        <v>0.2316405684674166</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2200746783805126</v>
+        <v>0.2197201624772699</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2449004262666542</v>
+        <v>0.2443961297321402</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2148</v>
@@ -9184,19 +9184,19 @@
         <v>1999997</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1921452</v>
+        <v>1923917</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2076799</v>
+        <v>2084226</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2760067978226499</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2651673290449659</v>
+        <v>0.2655075107163967</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2866056767506223</v>
+        <v>0.2876306338915271</v>
       </c>
     </row>
     <row r="30">
